--- a/Table/Table_xls/npc对白配置.xlsx
+++ b/Table/Table_xls/npc对白配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4378,17 +4378,7 @@
     <t>千叶合成需要99个千叶碎片</t>
   </si>
   <si>
-    <r>
-      <t>160</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装备重铸需要重铸石50个</t>
-    </r>
+    <t>神器装备重铸需要重铸石50个</t>
   </si>
   <si>
     <t>名称</t>
@@ -5300,9 +5290,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5381,9 +5371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5411,6 +5408,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -5418,16 +5439,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5435,22 +5456,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5473,22 +5478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -5496,8 +5485,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5511,24 +5509,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="46">
@@ -5612,7 +5602,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5624,19 +5734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5648,67 +5758,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5720,85 +5788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5809,56 +5799,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5881,7 +5821,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5889,8 +5840,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5909,162 +5875,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -14428,7 +14418,7 @@
       <c r="B663" s="56" t="s">
         <v>945</v>
       </c>
-      <c r="C663" s="36" t="s">
+      <c r="C663" s="39" t="s">
         <v>949</v>
       </c>
     </row>

--- a/Table/Table_xls/npc对白配置.xlsx
+++ b/Table/Table_xls/npc对白配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257">
   <si>
     <t>id</t>
   </si>
@@ -4379,6 +4379,24 @@
   </si>
   <si>
     <t>神器装备重铸需要重铸石50个</t>
+  </si>
+  <si>
+    <t>装备点化</t>
+  </si>
+  <si>
+    <t>点化装备可以拥有更高的属性</t>
+  </si>
+  <si>
+    <t>套装点化</t>
+  </si>
+  <si>
+    <t>套装点化可以随机获得门派的技能等级加成，技能目标增加或者其他门派的技能，三件同样的技能套装才可以触发</t>
+  </si>
+  <si>
+    <t>新角色打造商城</t>
+  </si>
+  <si>
+    <t>再这里可以购买新角色的装备打造材料</t>
   </si>
   <si>
     <t>名称</t>
@@ -5289,10 +5307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -5365,6 +5383,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5372,15 +5397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5391,13 +5408,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5417,6 +5427,50 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -5433,7 +5487,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5447,6 +5509,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -5455,67 +5532,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5602,7 +5620,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5614,19 +5698,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5638,19 +5782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5662,133 +5800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5799,6 +5817,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5821,7 +5848,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5833,30 +5869,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5877,6 +5889,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5890,171 +5917,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6740,14 +6758,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AE663"/>
+  <dimension ref="A1:AE666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B622" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B626" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C663" sqref="C663"/>
+      <selection pane="bottomRight" activeCell="C666" sqref="C666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -14420,6 +14438,39 @@
       </c>
       <c r="C663" s="39" t="s">
         <v>949</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="37">
+        <v>2795</v>
+      </c>
+      <c r="B664" s="56" t="s">
+        <v>950</v>
+      </c>
+      <c r="C664" s="39" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="37">
+        <v>2796</v>
+      </c>
+      <c r="B665" s="56" t="s">
+        <v>952</v>
+      </c>
+      <c r="C665" s="39" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="37">
+        <v>2797</v>
+      </c>
+      <c r="B666" s="56" t="s">
+        <v>954</v>
+      </c>
+      <c r="C666" s="39" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -14445,12 +14496,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -14460,7 +14511,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -14470,7 +14521,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -14480,7 +14531,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -14490,7 +14541,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -14500,7 +14551,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -14510,17 +14561,17 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -14550,12 +14601,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -14590,7 +14641,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -14605,17 +14656,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -14660,7 +14711,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -14685,7 +14736,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="9" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -14720,32 +14771,32 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="6" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="9" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="6" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="5" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -14785,12 +14836,12 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="5" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -14810,27 +14861,27 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -14850,37 +14901,37 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="5" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="5" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="10" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -14890,12 +14941,12 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
     </row>
     <row r="92" ht="13.5" spans="1:1">
@@ -14925,1302 +14976,1302 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="12" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="12" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="12" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="12" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="12" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="12" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="13" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="13" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="13" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="13" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="13" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="13" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="13" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="13" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="13" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="13" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="12" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="114" ht="24" spans="1:1">
       <c r="A114" s="12" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="12" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="12" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="12" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="12" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="12" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="12" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="12" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="12" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="123" ht="13.5" spans="1:1">
       <c r="A123" s="2" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="124" ht="13.5" spans="1:1">
       <c r="A124" s="2" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="125" ht="13.5" spans="1:1">
       <c r="A125" s="2" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="126" ht="27" spans="1:1">
       <c r="A126" s="2" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="127" ht="13.5" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="128" ht="13.5" spans="1:1">
       <c r="A128" s="2" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="129" ht="13.5" spans="1:1">
       <c r="A129" s="2" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="130" ht="13.5" spans="1:1">
       <c r="A130" s="2" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="132" ht="14.25" spans="1:1">
       <c r="A132" s="14" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="133" ht="28.5" spans="1:1">
       <c r="A133" s="14" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="134" ht="14.25" spans="1:1">
       <c r="A134" s="14" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="135" ht="28.5" spans="1:1">
       <c r="A135" s="14" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="136" ht="14.25" spans="1:1">
       <c r="A136" s="14" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="137" ht="28.5" spans="1:1">
       <c r="A137" s="14" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="138" ht="14.25" spans="1:1">
       <c r="A138" s="14" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="139" ht="14.25" spans="1:1">
       <c r="A139" s="14" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="140" ht="14.25" spans="1:1">
       <c r="A140" s="14" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="141" ht="28.5" spans="1:1">
       <c r="A141" s="14" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="142" ht="14.25" spans="1:1">
       <c r="A142" s="14" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="143" ht="14.25" spans="1:1">
       <c r="A143" s="14" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="144" ht="27" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="145" ht="13.5" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="146" ht="13.5" spans="1:1">
       <c r="A146" s="2" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="147" ht="27" spans="1:1">
       <c r="A147" s="2" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="148" ht="27" spans="1:1">
       <c r="A148" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="149" ht="27" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="15" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="15" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="15" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="12" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="12" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="12" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="5" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="5" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="5" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="5" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="5" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="5" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="5" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="5" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="5" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="5" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="5" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="5" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="5" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="5" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="5" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="5" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="5" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="5" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="5" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="5" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="5" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="5" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="5" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="5" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="5" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="5" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="5" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="5" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="5" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="5" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="5" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="5" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="5" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="5" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="5" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="5" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="5" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="5" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="5" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="5" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="5" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="5" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="5" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="5" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="5" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="5" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="5" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="5" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="5" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="5" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="5" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="5" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="5" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="5" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="5" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="5" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="5" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="5" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="5" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="5" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="5" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="5" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="5" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="5" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="5" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="5" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="5" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="5" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="5" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="5" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="5" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="5" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="5" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="5" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="5" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="5" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="5" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="5" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="5" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="5" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="5" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="12" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="12" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="12" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="12" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="12" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="12" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="12" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="12" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="12" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="12" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="12" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="12" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="12" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="12" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="12" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="12" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="12" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="12" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="12" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="12" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="16" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="16" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="16" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="16" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="16" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="16" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="17" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="17" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="17" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="17" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="17" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="17" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="17" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="16" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="16" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="16" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="16" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="16" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="16" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="16" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="17" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="17" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="17" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="17" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="17" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="17" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="17" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="16" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="16" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="16" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="16" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="16" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="16" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="16" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="17" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="17" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="17" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="17" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="17" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="17" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="17" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="299" ht="24" spans="1:1">
       <c r="A299" s="16" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="300" ht="24" spans="1:1">
       <c r="A300" s="16" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="301" ht="24" spans="1:1">
       <c r="A301" s="16" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="302" ht="24" spans="1:1">
       <c r="A302" s="16" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="303" ht="24" spans="1:1">
       <c r="A303" s="16" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="16" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="305" ht="24" spans="1:1">
       <c r="A305" s="16" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="306" ht="24" spans="1:1">
       <c r="A306" s="17" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="307" ht="24" spans="1:1">
       <c r="A307" s="17" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="308" ht="24" spans="1:1">
       <c r="A308" s="17" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="309" ht="24" spans="1:1">
       <c r="A309" s="17" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="310" ht="24" spans="1:1">
       <c r="A310" s="17" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="17" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="312" ht="24" spans="1:1">
       <c r="A312" s="17" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="313" ht="24" spans="1:1">
       <c r="A313" s="16" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="16" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="315" ht="24" spans="1:1">
       <c r="A315" s="16" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="316" ht="24" spans="1:1">
       <c r="A316" s="16" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="317" ht="24" spans="1:1">
       <c r="A317" s="16" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="318" ht="24" spans="1:1">
       <c r="A318" s="16" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="16" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="17" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="17" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="17" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="17" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="17" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="17" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="17" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="16" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="16" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="16" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="16" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="16" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="16" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="16" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="17" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="17" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="17" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="17" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="17" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="17" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="17" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="341" ht="13.5" spans="1:1">
       <c r="A341" s="2" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="17" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="17" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="17" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="17" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="17" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="17" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="17" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="17" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="18" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="18" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="18" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="18" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="18" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="18" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="18" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="357" spans="1:1">
@@ -16230,7 +16281,7 @@
     </row>
     <row r="358" ht="13.5" spans="1:1">
       <c r="A358" s="2" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
